--- a/InputData/elec/BCoESC/BAU Cost of Electricity Sector Capital.xlsx
+++ b/InputData/elec/BCoESC/BAU Cost of Electricity Sector Capital.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BCoESC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6342DB1-5CE3-4D12-843E-D6D36BEA55B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21EFA02-DFB5-4147-87FB-8C268D6C3499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C8F9D547-902B-4E49-8BA2-E23B0A2DC1A9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Source:</t>
   </si>
@@ -209,6 +209,24 @@
   </si>
   <si>
     <t>BAU BCoESC Cost of Electricity Sector Capital for Other Electricity Sector Investments</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -905,10 +923,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,6 +1092,60 @@
         <v>53</v>
       </c>
       <c r="B18">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
         <f>Data!$B$20</f>
         <v>7.4200000000000002E-2</v>
       </c>

--- a/InputData/elec/BCoESC/BAU Cost of Electricity Sector Capital.xlsx
+++ b/InputData/elec/BCoESC/BAU Cost of Electricity Sector Capital.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BCoESC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21EFA02-DFB5-4147-87FB-8C268D6C3499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6479F-E270-4D80-98DB-AE12679A443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C8F9D547-902B-4E49-8BA2-E23B0A2DC1A9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Source:</t>
   </si>
@@ -226,7 +226,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -923,10 +926,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1149,15 @@
         <v>62</v>
       </c>
       <c r="B24">
+        <f>Data!$B$20</f>
+        <v>7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
         <f>Data!$B$20</f>
         <v>7.4200000000000002E-2</v>
       </c>
